--- a/public/assets/upload_soa/FORMAT_UPLOAD_SOA.xlsx
+++ b/public/assets/upload_soa/FORMAT_UPLOAD_SOA.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="42" uniqueCount="38">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="38">
   <si>
     <t>Plant 4</t>
   </si>
@@ -63,9 +63,6 @@
     <t>Bycycle_Employee</t>
   </si>
   <si>
-    <t>2023-01-01</t>
-  </si>
-  <si>
     <t>Area :</t>
   </si>
   <si>
@@ -130,6 +127,9 @@
   </si>
   <si>
     <t>Bycycle_Pool</t>
+  </si>
+  <si>
+    <t>2023-09-01</t>
   </si>
 </sst>
 </file>
@@ -153,7 +153,7 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="12"/>
+      <sz val="18"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -274,23 +274,21 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" quotePrefix="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="8" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="9" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="7" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -304,11 +302,13 @@
     <xf numFmtId="0" fontId="1" fillId="6" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
   </cellXfs>
@@ -612,599 +612,451 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:AF16"/>
+  <dimension ref="A1:AB6"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="V1" workbookViewId="0">
-      <selection activeCell="Z17" sqref="Z17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="J17" sqref="J17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="7.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="11" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="4.7109375" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="10.42578125" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="6.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="15.85546875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.42578125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="10" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="17.42578125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="11.42578125" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="13.85546875" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="21.140625" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="22.140625" bestFit="1" customWidth="1"/>
     <col min="12" max="12" width="17.7109375" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="10.7109375" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="12.5703125" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="18.140625" bestFit="1" customWidth="1"/>
     <col min="16" max="16" width="14.5703125" bestFit="1" customWidth="1"/>
-    <col min="17" max="17" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="19.85546875" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="20" max="20" width="27.28515625" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="23.7109375" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="21.85546875" bestFit="1" customWidth="1"/>
-    <col min="23" max="23" width="14.28515625" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="21.7109375" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="18.140625" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="28" max="28" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="29" max="29" width="10.7109375" bestFit="1" customWidth="1"/>
-    <col min="30" max="30" width="16.140625" bestFit="1" customWidth="1"/>
-    <col min="31" max="31" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="32" max="32" width="10.7109375" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="19.85546875" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="21.85546875" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="27.28515625" bestFit="1" customWidth="1"/>
+    <col min="20" max="20" width="23.7109375" bestFit="1" customWidth="1"/>
+    <col min="21" max="21" width="14.28515625" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="21.7109375" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="18.140625" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="9.42578125" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="11.28515625" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="16.85546875" bestFit="1" customWidth="1"/>
+    <col min="28" max="28" width="13.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:32" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A2" s="4" t="s">
+    <row r="1" spans="1:28" ht="23.25" x14ac:dyDescent="0.35">
+      <c r="A1" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="B1" s="11" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:28" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A2" s="12" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" s="12" t="s">
+        <v>2</v>
+      </c>
+      <c r="C2" s="19" t="s">
+        <v>3</v>
+      </c>
+      <c r="D2" s="19"/>
+      <c r="E2" s="20" t="s">
+        <v>4</v>
+      </c>
+      <c r="F2" s="20"/>
+      <c r="G2" s="20"/>
+      <c r="H2" s="20"/>
+      <c r="I2" s="14" t="s">
+        <v>20</v>
+      </c>
+      <c r="J2" s="14"/>
+      <c r="K2" s="14"/>
+      <c r="L2" s="14"/>
+      <c r="M2" s="15" t="s">
+        <v>21</v>
+      </c>
+      <c r="N2" s="15"/>
+      <c r="O2" s="15"/>
+      <c r="P2" s="15"/>
+      <c r="Q2" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="R2" s="16"/>
+      <c r="S2" s="16"/>
+      <c r="T2" s="16"/>
+      <c r="U2" s="17" t="s">
+        <v>27</v>
+      </c>
+      <c r="V2" s="17"/>
+      <c r="W2" s="17"/>
+      <c r="X2" s="17"/>
+      <c r="Y2" s="18" t="s">
+        <v>32</v>
+      </c>
+      <c r="Z2" s="18"/>
+      <c r="AA2" s="18"/>
+      <c r="AB2" s="18"/>
+    </row>
+    <row r="3" spans="1:28" s="10" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A3" s="13"/>
+      <c r="B3" s="13"/>
+      <c r="C3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="E3" s="5" t="s">
+        <v>5</v>
+      </c>
+      <c r="F3" s="5" t="s">
+        <v>6</v>
+      </c>
+      <c r="G3" s="5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H3" s="5" t="s">
+        <v>8</v>
+      </c>
+      <c r="I3" s="7" t="s">
+        <v>11</v>
+      </c>
+      <c r="J3" s="7" t="s">
+        <v>12</v>
+      </c>
+      <c r="K3" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="L3" s="7" t="s">
+        <v>14</v>
+      </c>
+      <c r="M3" s="8" t="s">
         <v>16</v>
       </c>
-      <c r="B2" s="4" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:32" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A4" s="12" t="s">
-        <v>1</v>
-      </c>
-      <c r="B4" s="12" t="s">
-        <v>2</v>
-      </c>
-      <c r="C4" s="13" t="s">
-        <v>3</v>
-      </c>
-      <c r="D4" s="13"/>
-      <c r="E4" s="11" t="s">
-        <v>4</v>
-      </c>
-      <c r="F4" s="11"/>
-      <c r="G4" s="11"/>
-      <c r="H4" s="11"/>
-      <c r="I4" s="14" t="s">
-        <v>21</v>
-      </c>
-      <c r="J4" s="14"/>
-      <c r="K4" s="14"/>
-      <c r="L4" s="14"/>
-      <c r="M4" s="15" t="s">
-        <v>22</v>
-      </c>
-      <c r="N4" s="15"/>
-      <c r="O4" s="15"/>
-      <c r="P4" s="15"/>
-      <c r="Q4" s="15"/>
-      <c r="R4" s="16" t="s">
+      <c r="N3" s="8" t="s">
+        <v>17</v>
+      </c>
+      <c r="O3" s="8" t="s">
+        <v>18</v>
+      </c>
+      <c r="P3" s="8" t="s">
+        <v>19</v>
+      </c>
+      <c r="Q3" s="9" t="s">
         <v>23</v>
       </c>
-      <c r="S4" s="16"/>
-      <c r="T4" s="16"/>
-      <c r="U4" s="16"/>
-      <c r="V4" s="16"/>
-      <c r="W4" s="17" t="s">
+      <c r="R3" s="9" t="s">
+        <v>24</v>
+      </c>
+      <c r="S3" s="9" t="s">
+        <v>25</v>
+      </c>
+      <c r="T3" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="U3" s="6" t="s">
         <v>28</v>
       </c>
-      <c r="X4" s="17"/>
-      <c r="Y4" s="17"/>
-      <c r="Z4" s="17"/>
-      <c r="AA4" s="17"/>
-      <c r="AB4" s="20" t="s">
+      <c r="V3" s="6" t="s">
+        <v>29</v>
+      </c>
+      <c r="W3" s="6" t="s">
+        <v>30</v>
+      </c>
+      <c r="X3" s="6" t="s">
+        <v>31</v>
+      </c>
+      <c r="Y3" s="3" t="s">
         <v>33</v>
       </c>
-      <c r="AC4" s="20"/>
-      <c r="AD4" s="20"/>
-      <c r="AE4" s="20"/>
-      <c r="AF4" s="20"/>
-    </row>
-    <row r="5" spans="1:32" s="18" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A5" s="19"/>
-      <c r="B5" s="19"/>
-      <c r="C5" s="5" t="s">
-        <v>9</v>
-      </c>
-      <c r="D5" s="5" t="s">
-        <v>10</v>
-      </c>
-      <c r="E5" s="6" t="s">
-        <v>5</v>
-      </c>
-      <c r="F5" s="6" t="s">
-        <v>6</v>
-      </c>
-      <c r="G5" s="6" t="s">
-        <v>7</v>
-      </c>
-      <c r="H5" s="6" t="s">
-        <v>8</v>
-      </c>
-      <c r="I5" s="8" t="s">
-        <v>11</v>
-      </c>
-      <c r="J5" s="8" t="s">
-        <v>12</v>
-      </c>
-      <c r="K5" s="8" t="s">
-        <v>13</v>
-      </c>
-      <c r="L5" s="8" t="s">
-        <v>14</v>
-      </c>
-      <c r="M5" s="9" t="s">
-        <v>17</v>
-      </c>
-      <c r="N5" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="O5" s="9" t="s">
-        <v>19</v>
-      </c>
-      <c r="P5" s="9" t="s">
-        <v>20</v>
-      </c>
-      <c r="Q5" s="9" t="s">
-        <v>18</v>
-      </c>
-      <c r="R5" s="10" t="s">
-        <v>24</v>
-      </c>
-      <c r="S5" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="T5" s="10" t="s">
-        <v>26</v>
-      </c>
-      <c r="U5" s="10" t="s">
-        <v>27</v>
-      </c>
-      <c r="V5" s="10" t="s">
-        <v>25</v>
-      </c>
-      <c r="W5" s="7" t="s">
-        <v>29</v>
-      </c>
-      <c r="X5" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="Y5" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="Z5" s="7" t="s">
-        <v>32</v>
-      </c>
-      <c r="AA5" s="7" t="s">
-        <v>30</v>
-      </c>
-      <c r="AB5" s="3" t="s">
+      <c r="Z3" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="AC5" s="3" t="s">
+      <c r="AA3" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="AD5" s="3" t="s">
+      <c r="AB3" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="AE5" s="3" t="s">
+    </row>
+    <row r="4" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A4" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="AF5" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="6" spans="1:32" x14ac:dyDescent="0.25">
+      <c r="B4" s="1">
+        <v>1</v>
+      </c>
+      <c r="C4" s="1">
+        <v>1</v>
+      </c>
+      <c r="D4" s="1">
+        <v>1</v>
+      </c>
+      <c r="E4" s="1">
+        <v>1</v>
+      </c>
+      <c r="F4" s="1">
+        <v>2</v>
+      </c>
+      <c r="G4" s="1">
+        <v>3</v>
+      </c>
+      <c r="H4" s="1">
+        <v>3</v>
+      </c>
+      <c r="I4" s="1">
+        <v>1</v>
+      </c>
+      <c r="J4" s="1">
+        <v>2</v>
+      </c>
+      <c r="K4" s="1">
+        <v>3</v>
+      </c>
+      <c r="L4" s="1">
+        <v>4</v>
+      </c>
+      <c r="M4" s="1">
+        <v>1</v>
+      </c>
+      <c r="N4" s="1">
+        <v>2</v>
+      </c>
+      <c r="O4" s="1">
+        <v>3</v>
+      </c>
+      <c r="P4" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q4" s="1">
+        <v>1</v>
+      </c>
+      <c r="R4" s="1">
+        <v>2</v>
+      </c>
+      <c r="S4" s="1">
+        <v>3</v>
+      </c>
+      <c r="T4" s="1">
+        <v>4</v>
+      </c>
+      <c r="U4" s="1">
+        <v>1</v>
+      </c>
+      <c r="V4" s="1">
+        <v>2</v>
+      </c>
+      <c r="W4" s="1">
+        <v>3</v>
+      </c>
+      <c r="X4" s="1">
+        <v>4</v>
+      </c>
+      <c r="Y4" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z4" s="1">
+        <v>2</v>
+      </c>
+      <c r="AA4" s="1">
+        <v>3</v>
+      </c>
+      <c r="AB4" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="5" spans="1:28" x14ac:dyDescent="0.25">
+      <c r="A5" s="2" t="s">
+        <v>37</v>
+      </c>
+      <c r="B5" s="1">
+        <v>2</v>
+      </c>
+      <c r="C5" s="1">
+        <v>2</v>
+      </c>
+      <c r="D5" s="1">
+        <v>2</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1</v>
+      </c>
+      <c r="F5" s="1">
+        <v>2</v>
+      </c>
+      <c r="G5" s="1">
+        <v>3</v>
+      </c>
+      <c r="H5" s="1">
+        <v>3</v>
+      </c>
+      <c r="I5" s="1">
+        <v>1</v>
+      </c>
+      <c r="J5" s="1">
+        <v>2</v>
+      </c>
+      <c r="K5" s="1">
+        <v>3</v>
+      </c>
+      <c r="L5" s="1">
+        <v>4</v>
+      </c>
+      <c r="M5" s="1">
+        <v>1</v>
+      </c>
+      <c r="N5" s="1">
+        <v>2</v>
+      </c>
+      <c r="O5" s="1">
+        <v>3</v>
+      </c>
+      <c r="P5" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q5" s="1">
+        <v>1</v>
+      </c>
+      <c r="R5" s="1">
+        <v>2</v>
+      </c>
+      <c r="S5" s="1">
+        <v>3</v>
+      </c>
+      <c r="T5" s="1">
+        <v>4</v>
+      </c>
+      <c r="U5" s="1">
+        <v>1</v>
+      </c>
+      <c r="V5" s="1">
+        <v>2</v>
+      </c>
+      <c r="W5" s="1">
+        <v>3</v>
+      </c>
+      <c r="X5" s="1">
+        <v>4</v>
+      </c>
+      <c r="Y5" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z5" s="1">
+        <v>2</v>
+      </c>
+      <c r="AA5" s="1">
+        <v>3</v>
+      </c>
+      <c r="AB5" s="1">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:28" x14ac:dyDescent="0.25">
       <c r="A6" s="2" t="s">
-        <v>15</v>
+        <v>37</v>
       </c>
       <c r="B6" s="1">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="C6" s="1">
         <v>3</v>
       </c>
       <c r="D6" s="1">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="E6" s="1">
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="F6" s="1">
-        <v>4</v>
-      </c>
-      <c r="G6" s="1"/>
-      <c r="H6" s="1"/>
-      <c r="I6" s="1"/>
-      <c r="J6" s="1"/>
-      <c r="K6" s="1"/>
-      <c r="L6" s="1"/>
-      <c r="M6" s="1"/>
-      <c r="N6" s="1"/>
-      <c r="O6" s="1"/>
-      <c r="P6" s="1"/>
-      <c r="Q6" s="1"/>
-      <c r="R6" s="1"/>
-      <c r="S6" s="1"/>
-      <c r="T6" s="1"/>
-      <c r="U6" s="1"/>
-      <c r="V6" s="1"/>
-      <c r="W6" s="1"/>
-      <c r="X6" s="1"/>
-      <c r="Y6" s="1"/>
-      <c r="Z6" s="1"/>
-      <c r="AA6" s="1"/>
-      <c r="AB6" s="1"/>
-      <c r="AC6" s="1"/>
-      <c r="AD6" s="1"/>
-      <c r="AE6" s="1"/>
-      <c r="AF6" s="1"/>
-    </row>
-    <row r="7" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A7" s="1"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-      <c r="D7" s="1"/>
-      <c r="E7" s="1"/>
-      <c r="F7" s="1"/>
-      <c r="G7" s="1"/>
-      <c r="H7" s="1"/>
-      <c r="I7" s="1"/>
-      <c r="J7" s="1"/>
-      <c r="K7" s="1"/>
-      <c r="L7" s="1"/>
-      <c r="M7" s="1"/>
-      <c r="N7" s="1"/>
-      <c r="O7" s="1"/>
-      <c r="P7" s="1"/>
-      <c r="Q7" s="1"/>
-      <c r="R7" s="1"/>
-      <c r="S7" s="1"/>
-      <c r="T7" s="1"/>
-      <c r="U7" s="1"/>
-      <c r="V7" s="1"/>
-      <c r="W7" s="1"/>
-      <c r="X7" s="1"/>
-      <c r="Y7" s="1"/>
-      <c r="Z7" s="1"/>
-      <c r="AA7" s="1"/>
-      <c r="AB7" s="1"/>
-      <c r="AC7" s="1"/>
-      <c r="AD7" s="1"/>
-      <c r="AE7" s="1"/>
-      <c r="AF7" s="1"/>
-    </row>
-    <row r="8" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A8" s="1"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-      <c r="D8" s="1"/>
-      <c r="E8" s="1"/>
-      <c r="F8" s="1"/>
-      <c r="G8" s="1"/>
-      <c r="H8" s="1"/>
-      <c r="I8" s="1"/>
-      <c r="J8" s="1"/>
-      <c r="K8" s="1"/>
-      <c r="L8" s="1"/>
-      <c r="M8" s="1"/>
-      <c r="N8" s="1"/>
-      <c r="O8" s="1"/>
-      <c r="P8" s="1"/>
-      <c r="Q8" s="1"/>
-      <c r="R8" s="1"/>
-      <c r="S8" s="1"/>
-      <c r="T8" s="1"/>
-      <c r="U8" s="1"/>
-      <c r="V8" s="1"/>
-      <c r="W8" s="1"/>
-      <c r="X8" s="1"/>
-      <c r="Y8" s="1"/>
-      <c r="Z8" s="1"/>
-      <c r="AA8" s="1"/>
-      <c r="AB8" s="1"/>
-      <c r="AC8" s="1"/>
-      <c r="AD8" s="1"/>
-      <c r="AE8" s="1"/>
-      <c r="AF8" s="1"/>
-    </row>
-    <row r="9" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A9" s="1"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-      <c r="D9" s="1"/>
-      <c r="E9" s="1"/>
-      <c r="F9" s="1"/>
-      <c r="G9" s="1"/>
-      <c r="H9" s="1"/>
-      <c r="I9" s="1"/>
-      <c r="J9" s="1"/>
-      <c r="K9" s="1"/>
-      <c r="L9" s="1"/>
-      <c r="M9" s="1"/>
-      <c r="N9" s="1"/>
-      <c r="O9" s="1"/>
-      <c r="P9" s="1"/>
-      <c r="Q9" s="1"/>
-      <c r="R9" s="1"/>
-      <c r="S9" s="1"/>
-      <c r="T9" s="1"/>
-      <c r="U9" s="1"/>
-      <c r="V9" s="1"/>
-      <c r="W9" s="1"/>
-      <c r="X9" s="1"/>
-      <c r="Y9" s="1"/>
-      <c r="Z9" s="1"/>
-      <c r="AA9" s="1"/>
-      <c r="AB9" s="1"/>
-      <c r="AC9" s="1"/>
-      <c r="AD9" s="1"/>
-      <c r="AE9" s="1"/>
-      <c r="AF9" s="1"/>
-    </row>
-    <row r="10" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A10" s="1"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-      <c r="D10" s="1"/>
-      <c r="E10" s="1"/>
-      <c r="F10" s="1"/>
-      <c r="G10" s="1"/>
-      <c r="H10" s="1"/>
-      <c r="I10" s="1"/>
-      <c r="J10" s="1"/>
-      <c r="K10" s="1"/>
-      <c r="L10" s="1"/>
-      <c r="M10" s="1"/>
-      <c r="N10" s="1"/>
-      <c r="O10" s="1"/>
-      <c r="P10" s="1"/>
-      <c r="Q10" s="1"/>
-      <c r="R10" s="1"/>
-      <c r="S10" s="1"/>
-      <c r="T10" s="1"/>
-      <c r="U10" s="1"/>
-      <c r="V10" s="1"/>
-      <c r="W10" s="1"/>
-      <c r="X10" s="1"/>
-      <c r="Y10" s="1"/>
-      <c r="Z10" s="1"/>
-      <c r="AA10" s="1"/>
-      <c r="AB10" s="1"/>
-      <c r="AC10" s="1"/>
-      <c r="AD10" s="1"/>
-      <c r="AE10" s="1"/>
-      <c r="AF10" s="1"/>
-    </row>
-    <row r="11" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A11" s="1"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
-      <c r="D11" s="1"/>
-      <c r="E11" s="1"/>
-      <c r="F11" s="1"/>
-      <c r="G11" s="1"/>
-      <c r="H11" s="1"/>
-      <c r="I11" s="1"/>
-      <c r="J11" s="1"/>
-      <c r="K11" s="1"/>
-      <c r="L11" s="1"/>
-      <c r="M11" s="1"/>
-      <c r="N11" s="1"/>
-      <c r="O11" s="1"/>
-      <c r="P11" s="1"/>
-      <c r="Q11" s="1"/>
-      <c r="R11" s="1"/>
-      <c r="S11" s="1"/>
-      <c r="T11" s="1"/>
-      <c r="U11" s="1"/>
-      <c r="V11" s="1"/>
-      <c r="W11" s="1"/>
-      <c r="X11" s="1"/>
-      <c r="Y11" s="1"/>
-      <c r="Z11" s="1"/>
-      <c r="AA11" s="1"/>
-      <c r="AB11" s="1"/>
-      <c r="AC11" s="1"/>
-      <c r="AD11" s="1"/>
-      <c r="AE11" s="1"/>
-      <c r="AF11" s="1"/>
-    </row>
-    <row r="12" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A12" s="1"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
-      <c r="D12" s="1"/>
-      <c r="E12" s="1"/>
-      <c r="F12" s="1"/>
-      <c r="G12" s="1"/>
-      <c r="H12" s="1"/>
-      <c r="I12" s="1"/>
-      <c r="J12" s="1"/>
-      <c r="K12" s="1"/>
-      <c r="L12" s="1"/>
-      <c r="M12" s="1"/>
-      <c r="N12" s="1"/>
-      <c r="O12" s="1"/>
-      <c r="P12" s="1"/>
-      <c r="Q12" s="1"/>
-      <c r="R12" s="1"/>
-      <c r="S12" s="1"/>
-      <c r="T12" s="1"/>
-      <c r="U12" s="1"/>
-      <c r="V12" s="1"/>
-      <c r="W12" s="1"/>
-      <c r="X12" s="1"/>
-      <c r="Y12" s="1"/>
-      <c r="Z12" s="1"/>
-      <c r="AA12" s="1"/>
-      <c r="AB12" s="1"/>
-      <c r="AC12" s="1"/>
-      <c r="AD12" s="1"/>
-      <c r="AE12" s="1"/>
-      <c r="AF12" s="1"/>
-    </row>
-    <row r="13" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A13" s="1"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
-      <c r="D13" s="1"/>
-      <c r="E13" s="1"/>
-      <c r="F13" s="1"/>
-      <c r="G13" s="1"/>
-      <c r="H13" s="1"/>
-      <c r="I13" s="1"/>
-      <c r="J13" s="1"/>
-      <c r="K13" s="1"/>
-      <c r="L13" s="1"/>
-      <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
-      <c r="P13" s="1"/>
-      <c r="Q13" s="1"/>
-      <c r="R13" s="1"/>
-      <c r="S13" s="1"/>
-      <c r="T13" s="1"/>
-      <c r="U13" s="1"/>
-      <c r="V13" s="1"/>
-      <c r="W13" s="1"/>
-      <c r="X13" s="1"/>
-      <c r="Y13" s="1"/>
-      <c r="Z13" s="1"/>
-      <c r="AA13" s="1"/>
-      <c r="AB13" s="1"/>
-      <c r="AC13" s="1"/>
-      <c r="AD13" s="1"/>
-      <c r="AE13" s="1"/>
-      <c r="AF13" s="1"/>
-    </row>
-    <row r="14" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A14" s="1"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
-      <c r="D14" s="1"/>
-      <c r="E14" s="1"/>
-      <c r="F14" s="1"/>
-      <c r="G14" s="1"/>
-      <c r="H14" s="1"/>
-      <c r="I14" s="1"/>
-      <c r="J14" s="1"/>
-      <c r="K14" s="1"/>
-      <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
-      <c r="O14" s="1"/>
-      <c r="P14" s="1"/>
-      <c r="Q14" s="1"/>
-      <c r="R14" s="1"/>
-      <c r="S14" s="1"/>
-      <c r="T14" s="1"/>
-      <c r="U14" s="1"/>
-      <c r="V14" s="1"/>
-      <c r="W14" s="1"/>
-      <c r="X14" s="1"/>
-      <c r="Y14" s="1"/>
-      <c r="Z14" s="1"/>
-      <c r="AA14" s="1"/>
-      <c r="AB14" s="1"/>
-      <c r="AC14" s="1"/>
-      <c r="AD14" s="1"/>
-      <c r="AE14" s="1"/>
-      <c r="AF14" s="1"/>
-    </row>
-    <row r="15" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A15" s="1"/>
-      <c r="B15" s="1"/>
-      <c r="C15" s="1"/>
-      <c r="D15" s="1"/>
-      <c r="E15" s="1"/>
-      <c r="F15" s="1"/>
-      <c r="G15" s="1"/>
-      <c r="H15" s="1"/>
-      <c r="I15" s="1"/>
-      <c r="J15" s="1"/>
-      <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
-      <c r="N15" s="1"/>
-      <c r="O15" s="1"/>
-      <c r="P15" s="1"/>
-      <c r="Q15" s="1"/>
-      <c r="R15" s="1"/>
-      <c r="S15" s="1"/>
-      <c r="T15" s="1"/>
-      <c r="U15" s="1"/>
-      <c r="V15" s="1"/>
-      <c r="W15" s="1"/>
-      <c r="X15" s="1"/>
-      <c r="Y15" s="1"/>
-      <c r="Z15" s="1"/>
-      <c r="AA15" s="1"/>
-      <c r="AB15" s="1"/>
-      <c r="AC15" s="1"/>
-      <c r="AD15" s="1"/>
-      <c r="AE15" s="1"/>
-      <c r="AF15" s="1"/>
-    </row>
-    <row r="16" spans="1:32" x14ac:dyDescent="0.25">
-      <c r="A16" s="1"/>
-      <c r="B16" s="1"/>
-      <c r="C16" s="1"/>
-      <c r="D16" s="1"/>
-      <c r="E16" s="1"/>
-      <c r="F16" s="1"/>
-      <c r="G16" s="1"/>
-      <c r="H16" s="1"/>
-      <c r="I16" s="1"/>
-      <c r="J16" s="1"/>
-      <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
-      <c r="M16" s="1"/>
-      <c r="N16" s="1"/>
-      <c r="O16" s="1"/>
-      <c r="P16" s="1"/>
-      <c r="Q16" s="1"/>
-      <c r="R16" s="1"/>
-      <c r="S16" s="1"/>
-      <c r="T16" s="1"/>
-      <c r="U16" s="1"/>
-      <c r="V16" s="1"/>
-      <c r="W16" s="1"/>
-      <c r="X16" s="1"/>
-      <c r="Y16" s="1"/>
-      <c r="Z16" s="1"/>
-      <c r="AA16" s="1"/>
-      <c r="AB16" s="1"/>
-      <c r="AC16" s="1"/>
-      <c r="AD16" s="1"/>
-      <c r="AE16" s="1"/>
-      <c r="AF16" s="1"/>
+        <v>2</v>
+      </c>
+      <c r="G6" s="1">
+        <v>3</v>
+      </c>
+      <c r="H6" s="1">
+        <v>3</v>
+      </c>
+      <c r="I6" s="1">
+        <v>1</v>
+      </c>
+      <c r="J6" s="1">
+        <v>2</v>
+      </c>
+      <c r="K6" s="1">
+        <v>3</v>
+      </c>
+      <c r="L6" s="1">
+        <v>4</v>
+      </c>
+      <c r="M6" s="1">
+        <v>1</v>
+      </c>
+      <c r="N6" s="1">
+        <v>2</v>
+      </c>
+      <c r="O6" s="1">
+        <v>3</v>
+      </c>
+      <c r="P6" s="1">
+        <v>4</v>
+      </c>
+      <c r="Q6" s="1">
+        <v>1</v>
+      </c>
+      <c r="R6" s="1">
+        <v>2</v>
+      </c>
+      <c r="S6" s="1">
+        <v>3</v>
+      </c>
+      <c r="T6" s="1">
+        <v>4</v>
+      </c>
+      <c r="U6" s="1">
+        <v>1</v>
+      </c>
+      <c r="V6" s="1">
+        <v>2</v>
+      </c>
+      <c r="W6" s="1">
+        <v>3</v>
+      </c>
+      <c r="X6" s="1">
+        <v>4</v>
+      </c>
+      <c r="Y6" s="1">
+        <v>1</v>
+      </c>
+      <c r="Z6" s="1">
+        <v>2</v>
+      </c>
+      <c r="AA6" s="1">
+        <v>3</v>
+      </c>
+      <c r="AB6" s="1">
+        <v>4</v>
+      </c>
     </row>
   </sheetData>
   <mergeCells count="9">
-    <mergeCell ref="R4:V4"/>
-    <mergeCell ref="W4:AA4"/>
-    <mergeCell ref="AB4:AF4"/>
-    <mergeCell ref="C4:D4"/>
-    <mergeCell ref="E4:H4"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="I4:L4"/>
-    <mergeCell ref="M4:Q4"/>
+    <mergeCell ref="U2:X2"/>
+    <mergeCell ref="Y2:AB2"/>
+    <mergeCell ref="C2:D2"/>
+    <mergeCell ref="E2:H2"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="B2:B3"/>
+    <mergeCell ref="I2:L2"/>
+    <mergeCell ref="M2:P2"/>
+    <mergeCell ref="Q2:T2"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId1"/>
@@ -1213,12 +1065,383 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:C61"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="A43" workbookViewId="0">
+      <selection activeCell="I66" sqref="I66"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1">
+        <v>1</v>
+      </c>
+      <c r="C1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2">
+        <v>1</v>
+      </c>
+      <c r="C2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3">
+        <v>2</v>
+      </c>
+      <c r="C3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>4</v>
+      </c>
+      <c r="B4">
+        <v>2</v>
+      </c>
+      <c r="C4">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>1</v>
+      </c>
+      <c r="B5">
+        <v>3</v>
+      </c>
+      <c r="C5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>2</v>
+      </c>
+      <c r="B6">
+        <v>3</v>
+      </c>
+      <c r="C6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>3</v>
+      </c>
+      <c r="B7">
+        <f>SUM(B1:B6)</f>
+        <v>12</v>
+      </c>
+      <c r="C7">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8">
+        <v>4</v>
+      </c>
+      <c r="C8">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>2</v>
+      </c>
+      <c r="C10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>3</v>
+      </c>
+      <c r="C11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>4</v>
+      </c>
+      <c r="C12">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <f>SUM(C1:C12)</f>
+        <v>27</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A17">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A23">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="31" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="36" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="39" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="40" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="41" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="43" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="44" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="45" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="46" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <f>SUM(A1:A60)</f>
+        <v>150</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
